--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_202.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_202.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -528,677 +538,654 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4583333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A', 'E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[['D/5', 'A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:00:40.910022', '0:01:09.517005')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:27.963197', '0:00:40.095623')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:02.680000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[('0:00:10.240000', '0:00:21.020000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:02.560000', '0:00:04.800000'), ('0:00:00.300000', '0:00:03.340000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:25.480000', '0:00:32.580000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[('0:01:48.540000', '0:02:00.720000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:33.300000', '0:01:43.060000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[('0:01:14.120000', '0:01:26.540000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(102.76, 118.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.56, 16.4)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
